--- a/科研工作/DPC案例分析/Data/动态控制（铸造第一天）.xlsx
+++ b/科研工作/DPC案例分析/Data/动态控制（铸造第一天）.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Others\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="0913" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>—计划完成时间—</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>—累计权重—</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>—实际完成时间—</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -131,6 +127,30 @@
       </rPr>
       <t>砂型机器介绍</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>—1实际完成时间—</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>—2实际完成时间—</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>—3实际完成时间—</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>—4实际完成时间—</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>—5实际完成时间—</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>—6实际完成时间—</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -258,16 +278,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -332,21 +352,21 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -429,7 +449,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -447,10 +467,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1178059930008749"/>
-          <c:y val="4.1666666666666664E-2"/>
-          <c:w val="0.82800656167979003"/>
-          <c:h val="0.7428517495350605"/>
+          <c:x val="0.0836828003134679"/>
+          <c:y val="0.0416666666666667"/>
+          <c:w val="0.661181923349629"/>
+          <c:h val="0.839152935823928"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -501,91 +521,203 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>180</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>210</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>270</c:v>
+                  <c:v>270.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>340</c:v>
+                  <c:v>340.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>370</c:v>
+                  <c:v>370.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>420</c:v>
+                  <c:v>420.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0913'!$F$3:$F$15</c:f>
+              <c:f>'0913'!$K$3:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0913'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>—1实际完成时间—</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0913'!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0913'!$K$3:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,134 +726,441 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'0913'!$E$2</c:f>
+              <c:f>'0913'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>—实际完成时间—</c:v>
+                  <c:v>—2实际完成时间—</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'0913'!$E$3:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>420</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
             <c:numRef>
               <c:f>'0913'!$F$3:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>189.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77</c:v>
+                  <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90</c:v>
+                  <c:v>370.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>420.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0913'!$K$3:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0913'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>—3实际完成时间—</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0913'!$G$3:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0913'!$K$3:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0913'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>—4实际完成时间—</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0913'!$H$3:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0913'!$K$3:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0913'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>—5实际完成时间—</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0913'!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0913'!$K$3:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'0913'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>—6实际完成时间—</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'0913'!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'0913'!$K$3:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,14 +1175,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="57974224"/>
-        <c:axId val="57974784"/>
+        <c:axId val="2141117336"/>
+        <c:axId val="2141103112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57974224"/>
+        <c:axId val="2141117336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="420"/>
+          <c:max val="420.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -791,8 +1230,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.48180924105798251"/>
-              <c:y val="0.86499698794686308"/>
+              <c:x val="0.766169496585439"/>
+              <c:y val="0.891261031635655"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -803,26 +1242,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -858,19 +1277,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57974784"/>
+        <c:crossAx val="2141103112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="30"/>
+        <c:majorUnit val="30.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57974784"/>
+        <c:axId val="2141103112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -918,8 +1337,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7777777777777779E-3"/>
-              <c:y val="0.33533537474482356"/>
+              <c:x val="0.00277777777777778"/>
+              <c:y val="0.335335374744824"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -930,26 +1349,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -985,10 +1384,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57974224"/>
+        <c:crossAx val="2141117336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1006,10 +1405,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19752828491628927"/>
-          <c:y val="0.92548690698876379"/>
-          <c:w val="0.7296383034087951"/>
-          <c:h val="6.6497926033167051E-2"/>
+          <c:x val="0.75108273314177"/>
+          <c:y val="0.128813658634102"/>
+          <c:w val="0.246486099190208"/>
+          <c:h val="0.67420669592926"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1037,7 +1436,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1067,7 +1466,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1638,16 +2037,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2913,40 +3312,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV15"/>
+  <dimension ref="A1:JA15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.921875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="6.765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.61328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="256" width="8.921875" style="6" customWidth="1"/>
-    <col min="257" max="16384" width="8.921875" style="7"/>
+    <col min="1" max="1" width="15.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="6" customWidth="1"/>
+    <col min="9" max="256" width="8.875" style="6" customWidth="1"/>
+    <col min="257" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+    <row r="1" spans="1:261" ht="37.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:256" s="5" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:261" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2960,16 +3361,26 @@
         <v>0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
@@ -3215,10 +3626,15 @@
       <c r="IT2" s="4"/>
       <c r="IU2" s="4"/>
       <c r="IV2" s="4"/>
+      <c r="IW2" s="4"/>
+      <c r="IX2" s="4"/>
+      <c r="IY2" s="4"/>
+      <c r="IZ2" s="4"/>
+      <c r="JA2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:261" ht="16" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
@@ -3232,13 +3648,27 @@
       <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
         <v>0</v>
       </c>
+      <c r="IW3" s="6"/>
+      <c r="IX3" s="6"/>
+      <c r="IY3" s="6"/>
+      <c r="IZ3" s="6"/>
+      <c r="JA3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:261" ht="16" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="15">
         <v>15</v>
@@ -3251,16 +3681,30 @@
         <v>30</v>
       </c>
       <c r="E4" s="15">
+        <v>18</v>
+      </c>
+      <c r="F4" s="15">
+        <v>28</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
         <v>20</v>
       </c>
-      <c r="F4" s="16">
+      <c r="K4" s="16">
         <f>ROUND(C4/C$15*100,0)</f>
         <v>6</v>
       </c>
+      <c r="IW4" s="6"/>
+      <c r="IX4" s="6"/>
+      <c r="IY4" s="6"/>
+      <c r="IZ4" s="6"/>
+      <c r="JA4" s="6"/>
     </row>
-    <row r="5" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:261" ht="16" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="15">
         <v>5</v>
@@ -3273,16 +3717,30 @@
         <v>50</v>
       </c>
       <c r="E5" s="15">
+        <v>40</v>
+      </c>
+      <c r="F5" s="15">
+        <v>47</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15">
         <v>48</v>
       </c>
-      <c r="F5" s="16">
-        <f t="shared" ref="F5" si="1">ROUND(C5/C$15*100,0)</f>
+      <c r="K5" s="16">
+        <f t="shared" ref="K5" si="1">ROUND(C5/C$15*100,0)</f>
         <v>8</v>
       </c>
+      <c r="IW5" s="6"/>
+      <c r="IX5" s="6"/>
+      <c r="IY5" s="6"/>
+      <c r="IZ5" s="6"/>
+      <c r="JA5" s="6"/>
     </row>
-    <row r="6" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:261" ht="16" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="15">
         <v>5</v>
@@ -3295,16 +3753,30 @@
         <v>60</v>
       </c>
       <c r="E6" s="15">
+        <v>50</v>
+      </c>
+      <c r="F6" s="15">
+        <v>55</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
         <v>54</v>
       </c>
-      <c r="F6" s="16">
-        <f t="shared" ref="F6:F15" si="2">ROUND(C6/C$15*100,0)</f>
+      <c r="K6" s="16">
+        <f t="shared" ref="K6:K15" si="2">ROUND(C6/C$15*100,0)</f>
         <v>10</v>
       </c>
+      <c r="IW6" s="6"/>
+      <c r="IX6" s="6"/>
+      <c r="IY6" s="6"/>
+      <c r="IZ6" s="6"/>
+      <c r="JA6" s="6"/>
     </row>
-    <row r="7" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:261" ht="16" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="15">
         <v>5</v>
@@ -3317,16 +3789,30 @@
         <v>70</v>
       </c>
       <c r="E7" s="15">
+        <v>54</v>
+      </c>
+      <c r="F7" s="15">
+        <v>68</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
         <v>59</v>
       </c>
-      <c r="F7" s="16">
+      <c r="K7" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
+      <c r="IW7" s="6"/>
+      <c r="IX7" s="6"/>
+      <c r="IY7" s="6"/>
+      <c r="IZ7" s="6"/>
+      <c r="JA7" s="6"/>
     </row>
-    <row r="8" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:261" ht="16" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="15">
         <v>10</v>
@@ -3339,16 +3825,30 @@
         <v>90</v>
       </c>
       <c r="E8" s="15">
+        <v>87</v>
+      </c>
+      <c r="F8" s="15">
+        <v>96</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
         <v>90</v>
       </c>
-      <c r="F8" s="16">
+      <c r="K8" s="16">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
+      <c r="IW8" s="6"/>
+      <c r="IX8" s="6"/>
+      <c r="IY8" s="6"/>
+      <c r="IZ8" s="6"/>
+      <c r="JA8" s="6"/>
     </row>
-    <row r="9" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:261" ht="16" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="15">
         <v>50</v>
@@ -3361,16 +3861,30 @@
         <v>150</v>
       </c>
       <c r="E9" s="15">
+        <v>140</v>
+      </c>
+      <c r="F9" s="15">
+        <v>147</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
         <v>142</v>
       </c>
-      <c r="F9" s="16">
+      <c r="K9" s="16">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
+      <c r="IW9" s="6"/>
+      <c r="IX9" s="6"/>
+      <c r="IY9" s="6"/>
+      <c r="IZ9" s="6"/>
+      <c r="JA9" s="6"/>
     </row>
-    <row r="10" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:261" ht="16" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="15">
         <v>15</v>
@@ -3383,16 +3897,30 @@
         <v>180</v>
       </c>
       <c r="E10" s="15">
+        <v>173</v>
+      </c>
+      <c r="F10" s="15">
+        <v>189</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
         <v>176</v>
       </c>
-      <c r="F10" s="16">
+      <c r="K10" s="16">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
+      <c r="IW10" s="6"/>
+      <c r="IX10" s="6"/>
+      <c r="IY10" s="6"/>
+      <c r="IZ10" s="6"/>
+      <c r="JA10" s="6"/>
     </row>
-    <row r="11" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:261" ht="16" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="15">
         <v>10</v>
@@ -3405,16 +3933,30 @@
         <v>210</v>
       </c>
       <c r="E11" s="15">
+        <v>200</v>
+      </c>
+      <c r="F11" s="15">
+        <v>220</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15">
         <v>210</v>
       </c>
-      <c r="F11" s="16">
+      <c r="K11" s="16">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
+      <c r="IW11" s="6"/>
+      <c r="IX11" s="6"/>
+      <c r="IY11" s="6"/>
+      <c r="IZ11" s="6"/>
+      <c r="JA11" s="6"/>
     </row>
-    <row r="12" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:261" ht="16" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="15">
         <v>25</v>
@@ -3427,16 +3969,30 @@
         <v>270</v>
       </c>
       <c r="E12" s="15">
+        <v>240</v>
+      </c>
+      <c r="F12" s="15">
         <v>260</v>
       </c>
-      <c r="F12" s="16">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15">
+        <v>260</v>
+      </c>
+      <c r="K12" s="16">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
+      <c r="IW12" s="6"/>
+      <c r="IX12" s="6"/>
+      <c r="IY12" s="6"/>
+      <c r="IZ12" s="6"/>
+      <c r="JA12" s="6"/>
     </row>
-    <row r="13" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:261" ht="16" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="15">
         <v>45</v>
@@ -3449,16 +4005,30 @@
         <v>340</v>
       </c>
       <c r="E13" s="15">
+        <v>330</v>
+      </c>
+      <c r="F13" s="15">
+        <v>350</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15">
         <v>338</v>
       </c>
-      <c r="F13" s="16">
+      <c r="K13" s="16">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
+      <c r="IW13" s="6"/>
+      <c r="IX13" s="6"/>
+      <c r="IY13" s="6"/>
+      <c r="IZ13" s="6"/>
+      <c r="JA13" s="6"/>
     </row>
-    <row r="14" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>19</v>
+    <row r="14" spans="1:261" ht="16" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="15">
         <v>30</v>
@@ -3471,16 +4041,30 @@
         <v>370</v>
       </c>
       <c r="E14" s="15">
+        <v>375</v>
+      </c>
+      <c r="F14" s="15">
         <v>370</v>
       </c>
-      <c r="F14" s="16">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15">
+        <v>370</v>
+      </c>
+      <c r="K14" s="16">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
+      <c r="IW14" s="6"/>
+      <c r="IX14" s="6"/>
+      <c r="IY14" s="6"/>
+      <c r="IZ14" s="6"/>
+      <c r="JA14" s="6"/>
     </row>
-    <row r="15" spans="1:256" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:261" ht="16" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="15">
         <v>25</v>
@@ -3495,10 +4079,24 @@
       <c r="E15" s="15">
         <v>420</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
+        <v>420</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15">
+        <v>420</v>
+      </c>
+      <c r="K15" s="16">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
+      <c r="IW15" s="6"/>
+      <c r="IX15" s="6"/>
+      <c r="IY15" s="6"/>
+      <c r="IZ15" s="6"/>
+      <c r="JA15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3506,12 +4104,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Sheet1</oddHeader>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3521,76 +4124,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="8.61328125" style="2" customWidth="1"/>
-    <col min="6" max="256" width="8.921875" style="2" customWidth="1"/>
+    <col min="1" max="5" width="8.625" style="2" customWidth="1"/>
+    <col min="6" max="256" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3605,6 +4208,11 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Sheet2</oddHeader>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3614,76 +4222,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="8.61328125" style="3" customWidth="1"/>
-    <col min="6" max="256" width="8.921875" style="3" customWidth="1"/>
+    <col min="1" max="5" width="8.625" style="3" customWidth="1"/>
+    <col min="6" max="256" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3698,5 +4306,10 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Sheet3</oddHeader>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>